--- a/Work distribution.xlsx
+++ b/Work distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladimirberman/Documents/Cherries_detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD33FA9F-DF6E-9142-97DA-FD5A4316C76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED73D27-A843-6F46-97AD-0BA6C647F148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{A5A00820-1BCC-0A4B-8838-4CF11F48C532}"/>
   </bookViews>
@@ -51,13 +51,13 @@
     <t>Artem Bazhenov</t>
   </si>
   <si>
-    <t>Was responsible for Edge detection algorithm and worked with Anna on Faster R-CNN + presentation</t>
-  </si>
-  <si>
     <t>Vladimir Berman</t>
   </si>
   <si>
-    <t>Was responsible for Hough Transform algorithm and worked with Artem on YOLO v8 + presentation</t>
+    <t>Was responsible for Edge detection algorithm and worked with Anna on Faster R-CNN + collected and annotated dataset + presentation</t>
+  </si>
+  <si>
+    <t>Was responsible for Hough Transform algorithm and worked with Artem on YOLO v8 + collected and annotated dataset + presentation</t>
   </si>
 </sst>
 </file>
@@ -94,8 +94,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -413,13 +416,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="272" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="82.83203125" customWidth="1"/>
+    <col min="2" max="2" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -438,19 +441,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
